--- a/example.xlsx
+++ b/example.xlsx
@@ -298,7 +298,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>7</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -315,15 +315,18 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>2</row>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -340,15 +343,18 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>3</row>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -365,15 +371,18 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>4</row>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -390,15 +399,18 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>5</row>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -415,15 +427,18 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>6</row>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -434,6 +449,2511 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>51</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>56</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="61" name="Image 61" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="62" name="Image 62" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>63</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="63" name="Image 63" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>64</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="64" name="Image 64" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="65" name="Image 65" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>66</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="66" name="Image 66" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>67</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="67" name="Image 67" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>68</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="68" name="Image 68" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>69</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="69" name="Image 69" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>70</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="70" name="Image 70" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>71</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="71" name="Image 71" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>72</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="72" name="Image 72" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="73" name="Image 73" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="74" name="Image 74" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="75" name="Image 75" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="76" name="Image 76" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>77</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="77" name="Image 77" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="78" name="Image 78" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>79</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="79" name="Image 79" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>80</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="80" name="Image 80" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>81</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="81" name="Image 81" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>82</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="82" name="Image 82" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>83</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="83" name="Image 83" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>84</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="84" name="Image 84" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>85</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="85" name="Image 85" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>86</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="86" name="Image 86" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>87</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="87" name="Image 87" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>88</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="88" name="Image 88" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="89" name="Image 89" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="90" name="Image 90" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>91</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="91" name="Image 91" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>92</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="92" name="Image 92" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>93</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="93" name="Image 93" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>94</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="94" name="Image 94" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>95</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="95" name="Image 95" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>96</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="96" name="Image 96" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>97</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="97" name="Image 97" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>98</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="98" name="Image 98" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>99</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="99" name="Image 99" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>100</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="100" name="Image 100" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>101</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="101" name="Image 101" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>102</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="102" name="Image 102" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId102"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -736,7 +3256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +3569,3558 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - BLACK</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - GREY</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>GRY</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - NAVY</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NVY</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - RED</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DA-201</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>KNIT PATCH HAT WITH POM - WHITE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>WHT</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>G-303</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>KNIT MITTEN WITH REAL FUR CUFF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ACCESSORIES</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>One size fits most</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
